--- a/Code/Results/Cases/Case_0_224/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_224/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2463867573192005</v>
+        <v>0.222610440090321</v>
       </c>
       <c r="D2">
-        <v>0.06426737260656523</v>
+        <v>0.0408356919643964</v>
       </c>
       <c r="E2">
-        <v>0.154326931649301</v>
+        <v>0.1408515772319348</v>
       </c>
       <c r="F2">
-        <v>0.4169834832763115</v>
+        <v>0.8187474935530261</v>
       </c>
       <c r="G2">
-        <v>0.0007951053720072881</v>
+        <v>0.002447370423477938</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3959781287897641</v>
+        <v>0.840289972293256</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.225591762481486</v>
+        <v>1.92459884011231</v>
       </c>
       <c r="L2">
-        <v>0.1858730097332071</v>
+        <v>0.1707463507152838</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.156733440970356</v>
+        <v>2.881846131472187</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2183668411744151</v>
+        <v>0.2156025268874373</v>
       </c>
       <c r="D3">
-        <v>0.05822038292019727</v>
+        <v>0.03881409652007761</v>
       </c>
       <c r="E3">
-        <v>0.1370127244383212</v>
+        <v>0.1369602421329823</v>
       </c>
       <c r="F3">
-        <v>0.3985247023656697</v>
+        <v>0.8259581049857445</v>
       </c>
       <c r="G3">
-        <v>0.0007998873310212304</v>
+        <v>0.002450456556128578</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3816981240420461</v>
+        <v>0.8479275664889556</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.546582973624595</v>
+        <v>1.707805448715021</v>
       </c>
       <c r="L3">
-        <v>0.1651772084207082</v>
+        <v>0.1664773415516549</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.146957091117258</v>
+        <v>2.922367808684896</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2013331063965751</v>
+        <v>0.2113790143419436</v>
       </c>
       <c r="D4">
-        <v>0.05451436762270134</v>
+        <v>0.03756990104601954</v>
       </c>
       <c r="E4">
-        <v>0.1265450297768673</v>
+        <v>0.1346409611303372</v>
       </c>
       <c r="F4">
-        <v>0.388812892628529</v>
+        <v>0.8311183509506535</v>
       </c>
       <c r="G4">
-        <v>0.0008029117821746481</v>
+        <v>0.002452450581892495</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3743825902982252</v>
+        <v>0.8533021342471798</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.130162096940353</v>
+        <v>1.574324779179278</v>
       </c>
       <c r="L4">
-        <v>0.1527234753386395</v>
+        <v>0.1639583650530909</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.146448077576707</v>
+        <v>2.949787605068167</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1944302649590668</v>
+        <v>0.2096779570990037</v>
       </c>
       <c r="D5">
-        <v>0.05300528566595375</v>
+        <v>0.03706218268145989</v>
       </c>
       <c r="E5">
-        <v>0.1223166529930353</v>
+        <v>0.1337134613088296</v>
       </c>
       <c r="F5">
-        <v>0.3852379815445701</v>
+        <v>0.8334050360551757</v>
       </c>
       <c r="G5">
-        <v>0.0008041670149709489</v>
+        <v>0.002453288165218113</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3717449014174008</v>
+        <v>0.855664219497001</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.960527974020351</v>
+        <v>1.519841021617992</v>
       </c>
       <c r="L5">
-        <v>0.1477065759359064</v>
+        <v>0.1629575445431684</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.147541779172911</v>
+        <v>2.961598335440272</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1932862591313551</v>
+        <v>0.2093967122584672</v>
       </c>
       <c r="D6">
-        <v>0.05275475729688139</v>
+        <v>0.0369778353580017</v>
       </c>
       <c r="E6">
-        <v>0.1216166807910604</v>
+        <v>0.1335605158512649</v>
       </c>
       <c r="F6">
-        <v>0.3846667775250836</v>
+        <v>0.833795828803801</v>
       </c>
       <c r="G6">
-        <v>0.0008043768343320724</v>
+        <v>0.002453428757686784</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3713270446793118</v>
+        <v>0.8560668141343584</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.932362268687541</v>
+        <v>1.510788742630893</v>
       </c>
       <c r="L6">
-        <v>0.1468768733206716</v>
+        <v>0.1627929096947582</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.147799708024564</v>
+        <v>2.963597921155127</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2012398617621898</v>
+        <v>0.2113559919399677</v>
       </c>
       <c r="D7">
-        <v>0.05449401168681334</v>
+        <v>0.0375630565571754</v>
       </c>
       <c r="E7">
-        <v>0.1264878582254703</v>
+        <v>0.134628381148552</v>
       </c>
       <c r="F7">
-        <v>0.3887631626745289</v>
+        <v>0.8311484462139163</v>
       </c>
       <c r="G7">
-        <v>0.0008029286179781492</v>
+        <v>0.002452461776603593</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.374345654793153</v>
+        <v>0.8533332945937531</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.127874185981455</v>
+        <v>1.573590349205176</v>
       </c>
       <c r="L7">
-        <v>0.1526555876859916</v>
+        <v>0.1639447636737188</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.146457662304599</v>
+        <v>2.949944311884977</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2366873651154151</v>
+        <v>0.2201776939791955</v>
       </c>
       <c r="D8">
-        <v>0.06218058250833991</v>
+        <v>0.04013927522908745</v>
       </c>
       <c r="E8">
-        <v>0.1483207558371937</v>
+        <v>0.1394953238958792</v>
       </c>
       <c r="F8">
-        <v>0.4102666988324515</v>
+        <v>0.8210813269024726</v>
       </c>
       <c r="G8">
-        <v>0.0007967361966238265</v>
+        <v>0.002448413993396915</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3907394347340443</v>
+        <v>0.8427810165201919</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.991327383374482</v>
+        <v>1.849926951514476</v>
       </c>
       <c r="L8">
-        <v>0.178680947008246</v>
+        <v>0.1692531686931318</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.152172595251358</v>
+        <v>2.895290013755741</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3077675810438905</v>
+        <v>0.2381035733915553</v>
       </c>
       <c r="D9">
-        <v>0.07733772974627584</v>
+        <v>0.04516662199195309</v>
       </c>
       <c r="E9">
-        <v>0.1926146292636872</v>
+        <v>0.1495947009675831</v>
       </c>
       <c r="F9">
-        <v>0.4665123206062276</v>
+        <v>0.8071757962825572</v>
       </c>
       <c r="G9">
-        <v>0.0007852675400932129</v>
+        <v>0.002441259387147193</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4354599459726458</v>
+        <v>0.8275401473166895</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.691654699167827</v>
+        <v>2.388775598477139</v>
       </c>
       <c r="L9">
-        <v>0.2320042518562531</v>
+        <v>0.1804756024921801</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.210828543042481</v>
+        <v>2.808333105294423</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3612714310863794</v>
+        <v>0.2516529295131704</v>
       </c>
       <c r="D10">
-        <v>0.08857093197750032</v>
+        <v>0.04884375436763122</v>
       </c>
       <c r="E10">
-        <v>0.2263374365210709</v>
+        <v>0.1573539597413358</v>
       </c>
       <c r="F10">
-        <v>0.5182195454479555</v>
+        <v>0.8005467174282472</v>
       </c>
       <c r="G10">
-        <v>0.0007772138444042047</v>
+        <v>0.002436475432466468</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4775452214820746</v>
+        <v>0.8196898980291749</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7.950154241245855</v>
+        <v>2.782688081240053</v>
       </c>
       <c r="L10">
-        <v>0.2729913919292812</v>
+        <v>0.1892195825153209</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.288605466134129</v>
+        <v>2.756871347124559</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3859692663734791</v>
+        <v>0.2578987604857446</v>
       </c>
       <c r="D11">
-        <v>0.09371391076366109</v>
+        <v>0.05051272951696717</v>
       </c>
       <c r="E11">
-        <v>0.2420027754985412</v>
+        <v>0.1609577334195862</v>
       </c>
       <c r="F11">
-        <v>0.5444332618985186</v>
+        <v>0.7983163053947351</v>
       </c>
       <c r="G11">
-        <v>0.00077362149228071</v>
+        <v>0.002434400659000486</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4990741546056867</v>
+        <v>0.8168505179802281</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.525912365644672</v>
+        <v>2.961436533478548</v>
       </c>
       <c r="L11">
-        <v>0.2921319435724286</v>
+        <v>0.1933065813619805</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.332914667199049</v>
+        <v>2.736179386900801</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3953804168963302</v>
+        <v>0.2602756366570418</v>
       </c>
       <c r="D12">
-        <v>0.09566721631119179</v>
+        <v>0.05114415470824696</v>
       </c>
       <c r="E12">
-        <v>0.2479876500602103</v>
+        <v>0.1623330342080109</v>
       </c>
       <c r="F12">
-        <v>0.5547865692838769</v>
+        <v>0.7975851211617098</v>
       </c>
       <c r="G12">
-        <v>0.0007722705797678585</v>
+        <v>0.002433629509623773</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5076040704228362</v>
+        <v>0.8158809466882033</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.74451570501401</v>
+        <v>3.029057326348379</v>
       </c>
       <c r="L12">
-        <v>0.2994604018036853</v>
+        <v>0.1948699836909356</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.351104948833324</v>
+        <v>2.728736513344472</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3933508315575125</v>
+        <v>0.2597632143604187</v>
       </c>
       <c r="D13">
-        <v>0.09524626273191927</v>
+        <v>0.05100819235387632</v>
       </c>
       <c r="E13">
-        <v>0.246696251863014</v>
+        <v>0.1620363660919324</v>
       </c>
       <c r="F13">
-        <v>0.5525371520346027</v>
+        <v>0.7977375419996733</v>
       </c>
       <c r="G13">
-        <v>0.0007725611172343496</v>
+        <v>0.002433794945651636</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5057496345579224</v>
+        <v>0.8160850561945665</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.697408118864587</v>
+        <v>3.014497029652375</v>
       </c>
       <c r="L13">
-        <v>0.2978783598056935</v>
+        <v>0.1945325763861661</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.347122427501631</v>
+        <v>2.730321973587962</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3867423101124814</v>
+        <v>0.2580940732857755</v>
       </c>
       <c r="D14">
-        <v>0.09387448842211654</v>
+        <v>0.05056468907172018</v>
       </c>
       <c r="E14">
-        <v>0.2424940608954032</v>
+        <v>0.1610706673062623</v>
       </c>
       <c r="F14">
-        <v>0.5452762429672902</v>
+        <v>0.7982538742882781</v>
       </c>
       <c r="G14">
-        <v>0.0007735101677714802</v>
+        <v>0.002434336925297492</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4997681442712718</v>
+        <v>0.8167686311895608</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.543884794504606</v>
+        <v>2.967001106657165</v>
       </c>
       <c r="L14">
-        <v>0.2927331948335876</v>
+        <v>0.1934348877255729</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.33438213746129</v>
+        <v>2.735559175927307</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3827022528994064</v>
+        <v>0.2570731989688966</v>
       </c>
       <c r="D15">
-        <v>0.09303502112094009</v>
+        <v>0.05029295394879796</v>
       </c>
       <c r="E15">
-        <v>0.2399271563166963</v>
+        <v>0.1604805327136702</v>
       </c>
       <c r="F15">
-        <v>0.5408855354406796</v>
+        <v>0.7985849291932894</v>
       </c>
       <c r="G15">
-        <v>0.0007740926916131366</v>
+        <v>0.002434670792745594</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4961545300461054</v>
+        <v>0.8172011104716006</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.44992572579406</v>
+        <v>2.937899607013208</v>
       </c>
       <c r="L15">
-        <v>0.2895923807563889</v>
+        <v>0.1927645728710417</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.326766112836367</v>
+        <v>2.73881831227942</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3596651748344755</v>
+        <v>0.2512463945623438</v>
       </c>
       <c r="D16">
-        <v>0.08823557509633417</v>
+        <v>0.04873460383858941</v>
       </c>
       <c r="E16">
-        <v>0.2253207093613625</v>
+        <v>0.1571199331342257</v>
       </c>
       <c r="F16">
-        <v>0.5165638987653054</v>
+        <v>0.8007083241826862</v>
       </c>
       <c r="G16">
-        <v>0.0007774499794145754</v>
+        <v>0.002436613059743996</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4761891160741314</v>
+        <v>0.8198902183166155</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.912601656882941</v>
+        <v>2.770997210586188</v>
       </c>
       <c r="L16">
-        <v>0.271751240371529</v>
+        <v>0.1889546894009442</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.285900064635115</v>
+        <v>2.758278471026898</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3456293576213341</v>
+        <v>0.2476928113103156</v>
       </c>
       <c r="D17">
-        <v>0.08530041043238157</v>
+        <v>0.047777614002527</v>
       </c>
       <c r="E17">
-        <v>0.2164474337406119</v>
+        <v>0.1550772665953559</v>
       </c>
       <c r="F17">
-        <v>0.502359992269092</v>
+        <v>0.80221243101645</v>
       </c>
       <c r="G17">
-        <v>0.0007795272679516587</v>
+        <v>0.002437830517516997</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4645752816638478</v>
+        <v>0.8217276116324541</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.583879141509726</v>
+        <v>2.66849170855528</v>
       </c>
       <c r="L17">
-        <v>0.2609393806597069</v>
+        <v>0.1866454658576941</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.263204118305367</v>
+        <v>2.770914168584625</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3375896299149588</v>
+        <v>0.2456566234460809</v>
       </c>
       <c r="D18">
-        <v>0.08361521375258008</v>
+        <v>0.04722682601402539</v>
       </c>
       <c r="E18">
-        <v>0.2113739263529979</v>
+        <v>0.1539093496309079</v>
       </c>
       <c r="F18">
-        <v>0.4944410865727562</v>
+        <v>0.8031514284955961</v>
       </c>
       <c r="G18">
-        <v>0.0007807288348343455</v>
+        <v>0.00243854032218478</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4581174827816952</v>
+        <v>0.822853281380695</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.395106527387782</v>
+        <v>2.609491638697932</v>
       </c>
       <c r="L18">
-        <v>0.2547667130650808</v>
+        <v>0.1853275496325182</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.250982115819937</v>
+        <v>2.778437632373794</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3348730313403223</v>
+        <v>0.2449685374790818</v>
       </c>
       <c r="D19">
-        <v>0.08304512609236525</v>
+        <v>0.04704027922594634</v>
       </c>
       <c r="E19">
-        <v>0.2096611286429422</v>
+        <v>0.1535151108135437</v>
       </c>
       <c r="F19">
-        <v>0.4918018024762318</v>
+        <v>0.8034820292962692</v>
       </c>
       <c r="G19">
-        <v>0.0007811368506085362</v>
+        <v>0.002438782293014777</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4559681359163719</v>
+        <v>0.8232462260964226</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.331239756038997</v>
+        <v>2.589508187896058</v>
       </c>
       <c r="L19">
-        <v>0.2526843940642891</v>
+        <v>0.1848830920830693</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.246983160431824</v>
+        <v>2.781028816219163</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3471199985004318</v>
+        <v>0.24807029605509</v>
       </c>
       <c r="D20">
-        <v>0.08561254271666741</v>
+        <v>0.04787952398459083</v>
       </c>
       <c r="E20">
-        <v>0.2173888447409311</v>
+        <v>0.155293990616677</v>
       </c>
       <c r="F20">
-        <v>0.5038457882195928</v>
+        <v>0.802044666751101</v>
       </c>
       <c r="G20">
-        <v>0.0007793054425979045</v>
+        <v>0.002437699928636728</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4657883593494887</v>
+        <v>0.821524889262605</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.618840431166689</v>
+        <v>2.679407926702652</v>
       </c>
       <c r="L20">
-        <v>0.2620854942779687</v>
+        <v>0.1868902216911579</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.265533131623755</v>
+        <v>2.769542595027588</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3886817430556277</v>
+        <v>0.258584023309453</v>
       </c>
       <c r="D21">
-        <v>0.09427724639179758</v>
+        <v>0.05069497275645318</v>
       </c>
       <c r="E21">
-        <v>0.2437268636314016</v>
+        <v>0.1613540280980956</v>
       </c>
       <c r="F21">
-        <v>0.5473970334414489</v>
+        <v>0.7980991325747624</v>
       </c>
       <c r="G21">
-        <v>0.0007732311594501768</v>
+        <v>0.002434177339214104</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5015145210042604</v>
+        <v>0.8165649782733482</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.588961771827485</v>
+        <v>2.980953666312871</v>
       </c>
       <c r="L21">
-        <v>0.2942421971909681</v>
+        <v>0.1937568779922714</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.338084894935378</v>
+        <v>2.734010209602985</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4161901272225919</v>
+        <v>0.2655235937091049</v>
       </c>
       <c r="D22">
-        <v>0.09997432756533442</v>
+        <v>0.05253163687528684</v>
       </c>
       <c r="E22">
-        <v>0.2612509601464978</v>
+        <v>0.1653765640384322</v>
       </c>
       <c r="F22">
-        <v>0.5783685738667472</v>
+        <v>0.796181860194352</v>
       </c>
       <c r="G22">
-        <v>0.0007693158185311261</v>
+        <v>0.002431959738922775</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.527081501668782</v>
+        <v>0.8139393354719715</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.22640808231796</v>
+        <v>3.177636997827847</v>
       </c>
       <c r="L22">
-        <v>0.3157316148350731</v>
+        <v>0.1983364178909142</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.393795415297632</v>
+        <v>2.713077683091569</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4014742927271584</v>
+        <v>0.2618136027147102</v>
       </c>
       <c r="D23">
-        <v>0.09693018921134211</v>
+        <v>0.0515516973770147</v>
       </c>
       <c r="E23">
-        <v>0.2518674476266298</v>
+        <v>0.1632239982450585</v>
       </c>
       <c r="F23">
-        <v>0.5615949675547398</v>
+        <v>0.797144460005093</v>
       </c>
       <c r="G23">
-        <v>0.0007714008072675934</v>
+        <v>0.002433135594305732</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.513220782113784</v>
+        <v>0.8152841936702941</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.885840289272551</v>
+        <v>3.072700610345805</v>
       </c>
       <c r="L23">
-        <v>0.304215785043624</v>
+        <v>0.1958838248606156</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.363257719211759</v>
+        <v>2.724039628839932</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3464459879288029</v>
+        <v>0.2478996139705885</v>
       </c>
       <c r="D24">
-        <v>0.0854714207217171</v>
+        <v>0.04783345235303216</v>
       </c>
       <c r="E24">
-        <v>0.2169631465114321</v>
+        <v>0.1551959896290001</v>
       </c>
       <c r="F24">
-        <v>0.5031732931375288</v>
+        <v>0.8021202816756272</v>
       </c>
       <c r="G24">
-        <v>0.0007794057070117462</v>
+        <v>0.002437758937056345</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4652392469024349</v>
+        <v>0.8216163241218837</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.603033772491301</v>
+        <v>2.674472916943785</v>
       </c>
       <c r="L24">
-        <v>0.2615672023873685</v>
+        <v>0.1867795374077303</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.264477620782685</v>
+        <v>2.770161876682408</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2883385932400984</v>
+        <v>0.2331873600559504</v>
       </c>
       <c r="D25">
-        <v>0.07322385457624137</v>
+        <v>0.04380937949560604</v>
       </c>
       <c r="E25">
-        <v>0.1804461539202364</v>
+        <v>0.1468030295141034</v>
       </c>
       <c r="F25">
-        <v>0.4496114371141715</v>
+        <v>0.8103097663709136</v>
       </c>
       <c r="G25">
-        <v>0.0007883017486581571</v>
+        <v>0.00244311156662566</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4218615082285595</v>
+        <v>0.8310770920065949</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.230426893444985</v>
+        <v>2.243341766477329</v>
       </c>
       <c r="L25">
-        <v>0.2172929997111339</v>
+        <v>0.1773522813775088</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.189312920949874</v>
+        <v>2.829682338527988</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_224/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_224/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.222610440090321</v>
+        <v>0.2463867573188594</v>
       </c>
       <c r="D2">
-        <v>0.0408356919643964</v>
+        <v>0.06426737260633075</v>
       </c>
       <c r="E2">
-        <v>0.1408515772319348</v>
+        <v>0.1543269316492868</v>
       </c>
       <c r="F2">
-        <v>0.8187474935530261</v>
+        <v>0.4169834832763044</v>
       </c>
       <c r="G2">
-        <v>0.002447370423477938</v>
+        <v>0.0007951053719874705</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.840289972293256</v>
+        <v>0.3959781287897925</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.92459884011231</v>
+        <v>5.225591762481372</v>
       </c>
       <c r="L2">
-        <v>0.1707463507152838</v>
+        <v>0.1858730097331858</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.881846131472187</v>
+        <v>1.156733440970299</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2156025268874373</v>
+        <v>0.2183668411744151</v>
       </c>
       <c r="D3">
-        <v>0.03881409652007761</v>
+        <v>0.05822038292018306</v>
       </c>
       <c r="E3">
-        <v>0.1369602421329823</v>
+        <v>0.1370127244383355</v>
       </c>
       <c r="F3">
-        <v>0.8259581049857445</v>
+        <v>0.3985247023656484</v>
       </c>
       <c r="G3">
-        <v>0.002450456556128578</v>
+        <v>0.0007998873310211393</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8479275664889556</v>
+        <v>0.3816981240420461</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.707805448715021</v>
+        <v>4.546582973624481</v>
       </c>
       <c r="L3">
-        <v>0.1664773415516549</v>
+        <v>0.1651772084206513</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.922367808684896</v>
+        <v>1.146957091117258</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2113790143419436</v>
+        <v>0.2013331063965893</v>
       </c>
       <c r="D4">
-        <v>0.03756990104601954</v>
+        <v>0.05451436762270845</v>
       </c>
       <c r="E4">
-        <v>0.1346409611303372</v>
+        <v>0.1265450297768673</v>
       </c>
       <c r="F4">
-        <v>0.8311183509506535</v>
+        <v>0.3888128926285432</v>
       </c>
       <c r="G4">
-        <v>0.002452450581892495</v>
+        <v>0.0008029117821761063</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8533021342471798</v>
+        <v>0.3743825902982252</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.574324779179278</v>
+        <v>4.130162096940467</v>
       </c>
       <c r="L4">
-        <v>0.1639583650530909</v>
+        <v>0.1527234753385684</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.949787605068167</v>
+        <v>1.14644807757675</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2096779570990037</v>
+        <v>0.1944302649589673</v>
       </c>
       <c r="D5">
-        <v>0.03706218268145989</v>
+        <v>0.05300528566593243</v>
       </c>
       <c r="E5">
-        <v>0.1337134613088296</v>
+        <v>0.1223166529930317</v>
       </c>
       <c r="F5">
-        <v>0.8334050360551757</v>
+        <v>0.3852379815445772</v>
       </c>
       <c r="G5">
-        <v>0.002453288165218113</v>
+        <v>0.000804167014970315</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.855664219497001</v>
+        <v>0.3717449014174292</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.519841021617992</v>
+        <v>3.960527974020295</v>
       </c>
       <c r="L5">
-        <v>0.1629575445431684</v>
+        <v>0.1477065759358922</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.961598335440272</v>
+        <v>1.147541779172997</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2093967122584672</v>
+        <v>0.1932862591313693</v>
       </c>
       <c r="D6">
-        <v>0.0369778353580017</v>
+        <v>0.05275475729724377</v>
       </c>
       <c r="E6">
-        <v>0.1335605158512649</v>
+        <v>0.1216166807910355</v>
       </c>
       <c r="F6">
-        <v>0.833795828803801</v>
+        <v>0.3846667775250765</v>
       </c>
       <c r="G6">
-        <v>0.002453428757686784</v>
+        <v>0.0008043768343323077</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8560668141343584</v>
+        <v>0.3713270446792976</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.510788742630893</v>
+        <v>3.932362268687541</v>
       </c>
       <c r="L6">
-        <v>0.1627929096947582</v>
+        <v>0.1468768733207995</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.963597921155127</v>
+        <v>1.14779970802455</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2113559919399677</v>
+        <v>0.2012398617624882</v>
       </c>
       <c r="D7">
-        <v>0.0375630565571754</v>
+        <v>0.05449401168693413</v>
       </c>
       <c r="E7">
-        <v>0.134628381148552</v>
+        <v>0.1264878582254347</v>
       </c>
       <c r="F7">
-        <v>0.8311484462139163</v>
+        <v>0.3887631626745289</v>
       </c>
       <c r="G7">
-        <v>0.002452461776603593</v>
+        <v>0.0008029286179779271</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8533332945937531</v>
+        <v>0.374345654793153</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.573590349205176</v>
+        <v>4.127874185981284</v>
       </c>
       <c r="L7">
-        <v>0.1639447636737188</v>
+        <v>0.1526555876858851</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.949944311884977</v>
+        <v>1.146457662304599</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2201776939791955</v>
+        <v>0.236687365115543</v>
       </c>
       <c r="D8">
-        <v>0.04013927522908745</v>
+        <v>0.06218058250821912</v>
       </c>
       <c r="E8">
-        <v>0.1394953238958792</v>
+        <v>0.1483207558372115</v>
       </c>
       <c r="F8">
-        <v>0.8210813269024726</v>
+        <v>0.4102666988324515</v>
       </c>
       <c r="G8">
-        <v>0.002448413993396915</v>
+        <v>0.000796736196623643</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8427810165201919</v>
+        <v>0.3907394347340514</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.849926951514476</v>
+        <v>4.991327383374482</v>
       </c>
       <c r="L8">
-        <v>0.1692531686931318</v>
+        <v>0.1786809470083099</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.895290013755741</v>
+        <v>1.152172595251358</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2381035733915553</v>
+        <v>0.3077675810436631</v>
       </c>
       <c r="D9">
-        <v>0.04516662199195309</v>
+        <v>0.07733772974627584</v>
       </c>
       <c r="E9">
-        <v>0.1495947009675831</v>
+        <v>0.1926146292636659</v>
       </c>
       <c r="F9">
-        <v>0.8071757962825572</v>
+        <v>0.4665123206062276</v>
       </c>
       <c r="G9">
-        <v>0.002441259387147193</v>
+        <v>0.0007852675402087248</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8275401473166895</v>
+        <v>0.4354599459726529</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.388775598477139</v>
+        <v>6.691654699167657</v>
       </c>
       <c r="L9">
-        <v>0.1804756024921801</v>
+        <v>0.2320042518563383</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.808333105294423</v>
+        <v>1.210828543042481</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2516529295131704</v>
+        <v>0.3612714310867204</v>
       </c>
       <c r="D10">
-        <v>0.04884375436763122</v>
+        <v>0.08857093197750743</v>
       </c>
       <c r="E10">
-        <v>0.1573539597413358</v>
+        <v>0.2263374365210851</v>
       </c>
       <c r="F10">
-        <v>0.8005467174282472</v>
+        <v>0.5182195454479412</v>
       </c>
       <c r="G10">
-        <v>0.002436475432466468</v>
+        <v>0.0007772138444618528</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8196898980291749</v>
+        <v>0.4775452214820675</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.782688081240053</v>
+        <v>7.950154241245912</v>
       </c>
       <c r="L10">
-        <v>0.1892195825153209</v>
+        <v>0.2729913919292812</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.756871347124559</v>
+        <v>1.288605466134186</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2578987604857446</v>
+        <v>0.3859692663735643</v>
       </c>
       <c r="D11">
-        <v>0.05051272951696717</v>
+        <v>0.09371391076366109</v>
       </c>
       <c r="E11">
-        <v>0.1609577334195862</v>
+        <v>0.2420027754985483</v>
       </c>
       <c r="F11">
-        <v>0.7983163053947351</v>
+        <v>0.5444332618985186</v>
       </c>
       <c r="G11">
-        <v>0.002434400659000486</v>
+        <v>0.000773621492252019</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8168505179802281</v>
+        <v>0.4990741546057009</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.961436533478548</v>
+        <v>8.525912365644672</v>
       </c>
       <c r="L11">
-        <v>0.1933065813619805</v>
+        <v>0.292131943572457</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.736179386900801</v>
+        <v>1.332914667199049</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2602756366570418</v>
+        <v>0.3953804168962733</v>
       </c>
       <c r="D12">
-        <v>0.05114415470824696</v>
+        <v>0.09566721631126995</v>
       </c>
       <c r="E12">
-        <v>0.1623330342080109</v>
+        <v>0.2479876500601819</v>
       </c>
       <c r="F12">
-        <v>0.7975851211617098</v>
+        <v>0.5547865692838769</v>
       </c>
       <c r="G12">
-        <v>0.002433629509623773</v>
+        <v>0.0007722705797973974</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8158809466882033</v>
+        <v>0.5076040704228291</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.029057326348379</v>
+        <v>8.744515705014123</v>
       </c>
       <c r="L12">
-        <v>0.1948699836909356</v>
+        <v>0.2994604018036853</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.728736513344472</v>
+        <v>1.351104948833324</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2597632143604187</v>
+        <v>0.3933508315573988</v>
       </c>
       <c r="D13">
-        <v>0.05100819235387632</v>
+        <v>0.09524626273175585</v>
       </c>
       <c r="E13">
-        <v>0.1620363660919324</v>
+        <v>0.2466962518630424</v>
       </c>
       <c r="F13">
-        <v>0.7977375419996733</v>
+        <v>0.5525371520345814</v>
       </c>
       <c r="G13">
-        <v>0.002433794945651636</v>
+        <v>0.0007725611172348821</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8160850561945665</v>
+        <v>0.5057496345579224</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.014497029652375</v>
+        <v>8.697408118864644</v>
       </c>
       <c r="L13">
-        <v>0.1945325763861661</v>
+        <v>0.2978783598056367</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.730321973587962</v>
+        <v>1.347122427501546</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2580940732857755</v>
+        <v>0.3867423101121688</v>
       </c>
       <c r="D14">
-        <v>0.05056468907172018</v>
+        <v>0.0938744884220668</v>
       </c>
       <c r="E14">
-        <v>0.1610706673062623</v>
+        <v>0.2424940608954174</v>
       </c>
       <c r="F14">
-        <v>0.7982538742882781</v>
+        <v>0.5452762429672759</v>
       </c>
       <c r="G14">
-        <v>0.002434336925297492</v>
+        <v>0.0007735101677510236</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8167686311895608</v>
+        <v>0.4997681442712505</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.967001106657165</v>
+        <v>8.543884794504663</v>
       </c>
       <c r="L14">
-        <v>0.1934348877255729</v>
+        <v>0.2927331948336018</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.735559175927307</v>
+        <v>1.334382137461205</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2570731989688966</v>
+        <v>0.3827022528990369</v>
       </c>
       <c r="D15">
-        <v>0.05029295394879796</v>
+        <v>0.09303502112092588</v>
       </c>
       <c r="E15">
-        <v>0.1604805327136702</v>
+        <v>0.2399271563166891</v>
       </c>
       <c r="F15">
-        <v>0.7985849291932894</v>
+        <v>0.5408855354406796</v>
       </c>
       <c r="G15">
-        <v>0.002434670792745594</v>
+        <v>0.0007740926916114713</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8172011104716006</v>
+        <v>0.4961545300461054</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.937899607013208</v>
+        <v>8.449925725793946</v>
       </c>
       <c r="L15">
-        <v>0.1927645728710417</v>
+        <v>0.2895923807564742</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.73881831227942</v>
+        <v>1.326766112836367</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2512463945623438</v>
+        <v>0.3596651748347028</v>
       </c>
       <c r="D16">
-        <v>0.04873460383858941</v>
+        <v>0.08823557509630575</v>
       </c>
       <c r="E16">
-        <v>0.1571199331342257</v>
+        <v>0.2253207093613554</v>
       </c>
       <c r="F16">
-        <v>0.8007083241826862</v>
+        <v>0.5165638987652912</v>
       </c>
       <c r="G16">
-        <v>0.002436613059743996</v>
+        <v>0.000777449979416782</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8198902183166155</v>
+        <v>0.476189116074103</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.770997210586188</v>
+        <v>7.912601656883055</v>
       </c>
       <c r="L16">
-        <v>0.1889546894009442</v>
+        <v>0.271751240371529</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.758278471026898</v>
+        <v>1.285900064635115</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2476928113103156</v>
+        <v>0.3456293576211067</v>
       </c>
       <c r="D17">
-        <v>0.047777614002527</v>
+        <v>0.08530041043226788</v>
       </c>
       <c r="E17">
-        <v>0.1550772665953559</v>
+        <v>0.2164474337405764</v>
       </c>
       <c r="F17">
-        <v>0.80221243101645</v>
+        <v>0.5023599922690778</v>
       </c>
       <c r="G17">
-        <v>0.002437830517516997</v>
+        <v>0.000779527267974367</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8217276116324541</v>
+        <v>0.4645752816638336</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.66849170855528</v>
+        <v>7.583879141509897</v>
       </c>
       <c r="L17">
-        <v>0.1866454658576941</v>
+        <v>0.2609393806596358</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.770914168584625</v>
+        <v>1.263204118305367</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2456566234460809</v>
+        <v>0.3375896299148451</v>
       </c>
       <c r="D18">
-        <v>0.04722682601402539</v>
+        <v>0.08361521375251613</v>
       </c>
       <c r="E18">
-        <v>0.1539093496309079</v>
+        <v>0.211373926353005</v>
       </c>
       <c r="F18">
-        <v>0.8031514284955961</v>
+        <v>0.4944410865727633</v>
       </c>
       <c r="G18">
-        <v>0.00243854032218478</v>
+        <v>0.000780728834755056</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.822853281380695</v>
+        <v>0.4581174827816952</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.609491638697932</v>
+        <v>7.395106527387782</v>
       </c>
       <c r="L18">
-        <v>0.1853275496325182</v>
+        <v>0.2547667130651092</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.778437632373794</v>
+        <v>1.250982115819937</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2449685374790818</v>
+        <v>0.3348730313403223</v>
       </c>
       <c r="D19">
-        <v>0.04704027922594634</v>
+        <v>0.08304512609252157</v>
       </c>
       <c r="E19">
-        <v>0.1535151108135437</v>
+        <v>0.2096611286429351</v>
       </c>
       <c r="F19">
-        <v>0.8034820292962692</v>
+        <v>0.4918018024762247</v>
       </c>
       <c r="G19">
-        <v>0.002438782293014777</v>
+        <v>0.0007811368506081552</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8232462260964226</v>
+        <v>0.4559681359163719</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.589508187896058</v>
+        <v>7.33123975603894</v>
       </c>
       <c r="L19">
-        <v>0.1848830920830693</v>
+        <v>0.2526843940642891</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.781028816219163</v>
+        <v>1.246983160431824</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.24807029605509</v>
+        <v>0.3471199985004318</v>
       </c>
       <c r="D20">
-        <v>0.04787952398459083</v>
+        <v>0.08561254271666741</v>
       </c>
       <c r="E20">
-        <v>0.155293990616677</v>
+        <v>0.217388844740924</v>
       </c>
       <c r="F20">
-        <v>0.802044666751101</v>
+        <v>0.5038457882195999</v>
       </c>
       <c r="G20">
-        <v>0.002437699928636728</v>
+        <v>0.0007793054426774177</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.821524889262605</v>
+        <v>0.4657883593494816</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.679407926702652</v>
+        <v>7.618840431166518</v>
       </c>
       <c r="L20">
-        <v>0.1868902216911579</v>
+        <v>0.2620854942779829</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.769542595027588</v>
+        <v>1.265533131623698</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.258584023309453</v>
+        <v>0.3886817430556277</v>
       </c>
       <c r="D21">
-        <v>0.05069497275645318</v>
+        <v>0.09427724639194679</v>
       </c>
       <c r="E21">
-        <v>0.1613540280980956</v>
+        <v>0.2437268636314158</v>
       </c>
       <c r="F21">
-        <v>0.7980991325747624</v>
+        <v>0.5473970334414489</v>
       </c>
       <c r="G21">
-        <v>0.002434177339214104</v>
+        <v>0.0007732311594727313</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8165649782733482</v>
+        <v>0.5015145210042604</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.980953666312871</v>
+        <v>8.588961771827485</v>
       </c>
       <c r="L21">
-        <v>0.1937568779922714</v>
+        <v>0.2942421971909965</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.734010209602985</v>
+        <v>1.338084894935378</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2655235937091049</v>
+        <v>0.4161901272224782</v>
       </c>
       <c r="D22">
-        <v>0.05253163687528684</v>
+        <v>0.09997432756539126</v>
       </c>
       <c r="E22">
-        <v>0.1653765640384322</v>
+        <v>0.2612509601464765</v>
       </c>
       <c r="F22">
-        <v>0.796181860194352</v>
+        <v>0.5783685738667614</v>
       </c>
       <c r="G22">
-        <v>0.002431959738922775</v>
+        <v>0.000769315818526517</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8139393354719715</v>
+        <v>0.527081501668782</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.177636997827847</v>
+        <v>9.226408082318017</v>
       </c>
       <c r="L22">
-        <v>0.1983364178909142</v>
+        <v>0.3157316148350446</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.713077683091569</v>
+        <v>1.393795415297632</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2618136027147102</v>
+        <v>0.4014742927270731</v>
       </c>
       <c r="D23">
-        <v>0.0515516973770147</v>
+        <v>0.09693018921151264</v>
       </c>
       <c r="E23">
-        <v>0.1632239982450585</v>
+        <v>0.2518674476266298</v>
       </c>
       <c r="F23">
-        <v>0.797144460005093</v>
+        <v>0.5615949675547398</v>
       </c>
       <c r="G23">
-        <v>0.002433135594305732</v>
+        <v>0.0007714008072169196</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8152841936702941</v>
+        <v>0.5132207821137627</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.072700610345805</v>
+        <v>8.885840289272664</v>
       </c>
       <c r="L23">
-        <v>0.1958838248606156</v>
+        <v>0.3042157850437235</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.724039628839932</v>
+        <v>1.363257719211759</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2478996139705885</v>
+        <v>0.3464459879289166</v>
       </c>
       <c r="D24">
-        <v>0.04783345235303216</v>
+        <v>0.08547142072184499</v>
       </c>
       <c r="E24">
-        <v>0.1551959896290001</v>
+        <v>0.2169631465114392</v>
       </c>
       <c r="F24">
-        <v>0.8021202816756272</v>
+        <v>0.5031732931375217</v>
       </c>
       <c r="G24">
-        <v>0.002437758937056345</v>
+        <v>0.0007794057070689432</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8216163241218837</v>
+        <v>0.465239246902442</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.674472916943785</v>
+        <v>7.603033772491187</v>
       </c>
       <c r="L24">
-        <v>0.1867795374077303</v>
+        <v>0.2615672023872122</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.770161876682408</v>
+        <v>1.264477620782571</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2331873600559504</v>
+        <v>0.2883385932393878</v>
       </c>
       <c r="D25">
-        <v>0.04380937949560604</v>
+        <v>0.0732238545764119</v>
       </c>
       <c r="E25">
-        <v>0.1468030295141034</v>
+        <v>0.1804461539202009</v>
       </c>
       <c r="F25">
-        <v>0.8103097663709136</v>
+        <v>0.4496114371141857</v>
       </c>
       <c r="G25">
-        <v>0.00244311156662566</v>
+        <v>0.0007883017486960853</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8310770920065949</v>
+        <v>0.4218615082285666</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.243341766477329</v>
+        <v>6.230426893444871</v>
       </c>
       <c r="L25">
-        <v>0.1773522813775088</v>
+        <v>0.2172929997111197</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.829682338527988</v>
+        <v>1.189312920949959</v>
       </c>
     </row>
   </sheetData>
